--- a/SI/ST_Chapter6.xlsx
+++ b/SI/ST_Chapter6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="19200" windowHeight="6885" tabRatio="990"/>
@@ -17,7 +17,7 @@
     <sheet name="Table S6.7" sheetId="10" r:id="rId8"/>
     <sheet name="Table S6.8" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -5674,6 +5674,102 @@
   </si>
   <si>
     <t>EU list of substances prohibited in cosmetics products</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplementary Tables S6.1-S6.8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>for
+Chapter 6
+ of the 
+Ph.D. thesis titled:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Compilation, curation and network-based exploration of the chemical exposome"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>by
+Janani R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LIFE10201604004</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Institute of Mathematical Sciences (IMSc),
+Homi Bhabha National Institute (HBNI), 
+Chennai 600113, India</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5922,107 +6018,11 @@
       <t xml:space="preserve"> (2002), while the contaminant-gene interactions were compiled from CTD and ToxCast.</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Supplementary Tables S6.1-S6.8
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>for
-Chapter 6
- of the 
-Ph.D. thesis titled:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Exposome and health: Characterization and network-based exploration of diverse environmental chemical spaces"</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>by
-Janani R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LIFE10201604004</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Institute of Mathematical Sciences (IMSc),
-Homi Bhabha National Institute (HBNI), 
-Chennai 600113, India</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -6967,18 +6967,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="14.65" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7279,7 +7279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7296,7 +7296,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="33"/>
@@ -7758,7 +7758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7776,7 +7776,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="51.95" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -12403,7 +12403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -12431,7 +12431,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="36" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -16973,7 +16973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I588"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -16994,7 +16994,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -34038,7 +34038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -34053,7 +34053,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="33.75" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -34865,7 +34865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1497"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -34888,7 +34888,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -79793,7 +79793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -79819,7 +79819,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="39.75" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -86086,7 +86086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -86109,7 +86109,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>

--- a/SI/ST_Chapter6.xlsx
+++ b/SI/ST_Chapter6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="19200" windowHeight="6885" tabRatio="990"/>
@@ -17,7 +17,7 @@
     <sheet name="Table S6.7" sheetId="10" r:id="rId8"/>
     <sheet name="Table S6.8" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -5674,102 +5674,6 @@
   </si>
   <si>
     <t>EU list of substances prohibited in cosmetics products</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Supplementary Tables S6.1-S6.8
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>for
-Chapter 6
- of the 
-Ph.D. thesis titled:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Compilation, curation and network-based exploration of the chemical exposome"</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>by
-Janani R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LIFE10201604004</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Institute of Mathematical Sciences (IMSc),
-Homi Bhabha National Institute (HBNI), 
-Chennai 600113, India</t>
-    </r>
   </si>
   <si>
     <r>
@@ -6018,11 +5922,107 @@
       <t xml:space="preserve"> (2002), while the contaminant-gene interactions were compiled from CTD and ToxCast.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplementary Tables S6.1-S6.8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>for
+Chapter 6
+ of the 
+Ph.D. thesis titled:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Exposome and health: Characterization and network-based exploration of diverse environmental chemical spaces"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>by
+Janani R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LIFE10201604004</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Institute of Mathematical Sciences (IMSc),
+Homi Bhabha National Institute (HBNI), 
+Chennai 600113, India</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -6967,18 +6967,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection sqref="A1:J18"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="14.65" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7279,7 +7279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7296,7 +7296,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="33"/>
@@ -7758,7 +7758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7776,7 +7776,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="51.95" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -12403,7 +12403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -12431,7 +12431,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="36" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -16973,7 +16973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I588"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -16994,7 +16994,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -34038,7 +34038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -34053,7 +34053,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="33.75" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -34865,7 +34865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1497"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -34888,7 +34888,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -79793,7 +79793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -79819,7 +79819,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="39.75" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -86086,7 +86086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -86109,7 +86109,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
